--- a/codigo/with-a-little-help-from-my-friends-main/dados/COVID19IES.xlsx
+++ b/codigo/with-a-little-help-from-my-friends-main/dados/COVID19IES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\with-a-little-help-from-my-friends\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ciencia-de-dados\mit-grupo-2-2022\codigo\with-a-little-help-from-my-friends-main\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED27940-5362-4F60-817F-14E15426EB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E354931-33F7-4D75-854E-6A7504C81186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="1452" windowWidth="18972" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
@@ -1514,55 +1514,55 @@
       <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="57.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="100.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
+    <col min="5" max="5" width="40.08984375" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.36328125" customWidth="1"/>
+    <col min="8" max="8" width="57.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.36328125" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+    <col min="15" max="15" width="100.36328125" customWidth="1"/>
     <col min="16" max="16" width="14" style="3" customWidth="1"/>
-    <col min="17" max="17" width="60.88671875" customWidth="1"/>
-    <col min="18" max="20" width="18.88671875" customWidth="1"/>
-    <col min="21" max="21" width="16.77734375" customWidth="1"/>
-    <col min="22" max="22" width="102.109375" customWidth="1"/>
-    <col min="23" max="26" width="18.88671875" customWidth="1"/>
-    <col min="27" max="27" width="22.88671875" customWidth="1"/>
-    <col min="28" max="28" width="18.88671875" customWidth="1"/>
-    <col min="29" max="29" width="28.88671875" customWidth="1"/>
-    <col min="30" max="30" width="28.44140625" customWidth="1"/>
-    <col min="31" max="31" width="26.6640625" customWidth="1"/>
-    <col min="32" max="32" width="25.88671875" customWidth="1"/>
-    <col min="33" max="33" width="27.6640625" customWidth="1"/>
-    <col min="34" max="34" width="25.33203125" customWidth="1"/>
-    <col min="35" max="35" width="52.21875" customWidth="1"/>
-    <col min="36" max="36" width="10.44140625" customWidth="1"/>
-    <col min="37" max="37" width="66.6640625" customWidth="1"/>
-    <col min="38" max="38" width="28.5546875" customWidth="1"/>
-    <col min="39" max="39" width="30.77734375" customWidth="1"/>
-    <col min="40" max="40" width="25.88671875" customWidth="1"/>
+    <col min="17" max="17" width="60.90625" customWidth="1"/>
+    <col min="18" max="20" width="18.90625" customWidth="1"/>
+    <col min="21" max="21" width="16.81640625" customWidth="1"/>
+    <col min="22" max="22" width="102.08984375" customWidth="1"/>
+    <col min="23" max="26" width="18.90625" customWidth="1"/>
+    <col min="27" max="27" width="22.90625" customWidth="1"/>
+    <col min="28" max="28" width="18.90625" customWidth="1"/>
+    <col min="29" max="29" width="28.90625" customWidth="1"/>
+    <col min="30" max="30" width="28.453125" customWidth="1"/>
+    <col min="31" max="31" width="26.6328125" customWidth="1"/>
+    <col min="32" max="32" width="25.90625" customWidth="1"/>
+    <col min="33" max="33" width="27.6328125" customWidth="1"/>
+    <col min="34" max="34" width="25.36328125" customWidth="1"/>
+    <col min="35" max="35" width="52.1796875" customWidth="1"/>
+    <col min="36" max="36" width="10.453125" customWidth="1"/>
+    <col min="37" max="37" width="66.6328125" customWidth="1"/>
+    <col min="38" max="38" width="28.54296875" customWidth="1"/>
+    <col min="39" max="39" width="30.81640625" customWidth="1"/>
+    <col min="40" max="40" width="25.90625" customWidth="1"/>
     <col min="41" max="41" width="14" customWidth="1"/>
-    <col min="42" max="42" width="29.109375" customWidth="1"/>
-    <col min="43" max="43" width="84.44140625" customWidth="1"/>
-    <col min="44" max="44" width="23.109375" customWidth="1"/>
-    <col min="45" max="45" width="26.6640625" customWidth="1"/>
-    <col min="46" max="49" width="18.88671875" customWidth="1"/>
-    <col min="50" max="50" width="21.44140625" customWidth="1"/>
-    <col min="51" max="51" width="21.21875" customWidth="1"/>
-    <col min="52" max="58" width="18.88671875" customWidth="1"/>
+    <col min="42" max="42" width="29.08984375" customWidth="1"/>
+    <col min="43" max="43" width="84.453125" customWidth="1"/>
+    <col min="44" max="44" width="23.08984375" customWidth="1"/>
+    <col min="45" max="45" width="26.6328125" customWidth="1"/>
+    <col min="46" max="49" width="18.90625" customWidth="1"/>
+    <col min="50" max="50" width="21.453125" customWidth="1"/>
+    <col min="51" max="51" width="21.1796875" customWidth="1"/>
+    <col min="52" max="58" width="18.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>319</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44337.639256956019</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44490.349946111106</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44645.433733912039</v>
       </c>
